--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_157.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_157.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,313 +488,332 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_280</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3513071895424837</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.36, 5.0)]</t>
+          <t>[('0:01:01.683832', '0:01:11.056785')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:08.080000', '0:00:24.940000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>isophonics_22</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_244</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08188405797101449</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>[['F#', 'B', 'B/7']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(128.16, 129.88)]</t>
+          <t>[['C', 'F', 'F']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(31.840929, 39.410634)]</t>
+          <t>[('0:00:04.940612', '0:00:06.577619')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:55.935192', '0:01:02.158140')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(97.62, 113.78)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(11.94, 17.6)]</t>
+          <t>[('0:00:20.580000', '0:00:32.500000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:06.880000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(4.26, 8.68)]</t>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(94.06, 105.58)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(88.86, 97.74)]</t>
+          <t>[('0:01:58.780000', '0:02:06.080000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:52.240000', '0:01:57.700000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.09999999999999999</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B', 'B/3', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'C']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(153.617981, 161.988775)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(10.090897, 16.615704)]</t>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+          <t>[('0:00:06.980000', '0:00:20.820000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(0.7, 21.42)]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.3, 20.7)]</t>
+          <t>[('0:01:04.300000', '0:01:07.900000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+          <t>[('0:00:19.720000', '0:00:23.080000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -798,313 +822,320 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(97.62, 113.78)]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(10.56, 16.4)]</t>
+          <t>[('0:00:07.900000', '0:00:20.520000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1485507246376812</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D']]</t>
+          <t>[['G:7', 'C:min', 'C:min'], ['C:maj/G', 'G:7', 'C:min'], ['C:min', 'G:7/D', 'C:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(43.26, 45.66)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(124.702789, 130.612267)]</t>
+          <t>[('0:00:12.700000', '0:00:27.180000'), ('0:00:56.440000', '0:01:06.340000'), ('0:00:00.360000', '0:00:07.140000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:32.200000', '0:00:33.700000'), ('0:00:32.060000', '0:00:33.280000'), ('0:00:08.200000', '0:00:12.660000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(23.14, 32.76)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(53.46, 63.98)]</t>
+          <t>[('0:01:52.140000', '0:01:54.760000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:27.600000', '0:00:54.260000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[('0:00:01.980000', '0:00:06.300000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:08.180000', '0:00:14.180000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (53.46, 62.74), (0.38, 6.26)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(34.56, 36.42), (34.34, 35.88), (8.3, 12.96)]</t>
+          <t>[('0:00:36.640000', '0:01:18.160000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:49.020000', '0:01:44.600000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
+          <t>[['D#:min', 'B', 'F:hdim7/G#', 'A#:7', 'D#:min', 'G#:min/B', 'A#:7', 'F#:min/A', 'G#:7', 'C#:min', 'G#:7', 'C#:min', 'G#', 'G#:min', 'D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(118.44, 122.34)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.465952, 8.50033)]</t>
+          <t>[('0:00:16.520000', '0:01:04.980000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>[('0:00:16.320000', '0:01:01.580000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>schubert-winterreise_203</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>0.1107692307692308</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:7', 'C', 'C/7']]</t>
-        </is>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min/C', 'D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(10.937548, 16.810929)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(6.48, 13.64)]</t>
+          <t>[('0:00:05.060000', '0:02:03.260000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>[('0:00:06.040000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
@@ -1113,92 +1144,44 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(68.64, 83.84)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[('0:01:16.740000', '0:01:23.980000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(8.3, 12.96)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(36.66, 43.94)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:06.740000', '0:01:13.840000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
